--- a/biology/Zoologie/Anguilla_bicolor/Anguilla_bicolor.xlsx
+++ b/biology/Zoologie/Anguilla_bicolor/Anguilla_bicolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anguille bicolore, Anguille à nageoire courte
-Anguilla bicolor, l’Anguille bicolore ou Anguille à nageoire courte, est une espèce de poissons serpentiformes de la famille des Anguillidae. Ce poisson est présent en eau de mer, en eau saumâtre et en eau douce[1].
+Anguilla bicolor, l’Anguille bicolore ou Anguille à nageoire courte, est une espèce de poissons serpentiformes de la famille des Anguillidae. Ce poisson est présent en eau de mer, en eau saumâtre et en eau douce.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En créole, cette espèce porte les noms vernaculaires de Z'amab et Z'anguille[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En créole, cette espèce porte les noms vernaculaires de Z'amab et Z'anguille.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (20 septembre 2023)[1], les deux sous-espèces suivantes sont considérées comme invalides, et l'espèce est Anguilla bicolor est dès lors monotypique :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (20 septembre 2023), les deux sous-espèces suivantes sont considérées comme invalides, et l'espèce est Anguilla bicolor est dès lors monotypique :
 Anguilla bicolor bicolor McClelland, 1844
 Anguilla bicolor pacifica Schmidt, 1928</t>
         </is>
@@ -575,9 +591,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson se rencontre en Afrique du Sud, en Australie, au Bangladesh, en Birmanie, en Chine, en Corée du Sud, aux États fédérés de Micronésie, aux Îles Mariannes du Nord, en Inde, en Indonésie, au Kenya, à Madagascar, en Malaisie, au Malawi, aux Maldives, au Mozambique, à Oman, en Papouasie-Nouvelle-Guinée, aux Philippines, aux Seychelles, en Somalie, à Sri Lanka, en Tanzanie, au Viêt Nam, au Yémen et à Taïwan[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson se rencontre en Afrique du Sud, en Australie, au Bangladesh, en Birmanie, en Chine, en Corée du Sud, aux États fédérés de Micronésie, aux Îles Mariannes du Nord, en Inde, en Indonésie, au Kenya, à Madagascar, en Malaisie, au Malawi, aux Maldives, au Mozambique, à Oman, en Papouasie-Nouvelle-Guinée, aux Philippines, aux Seychelles, en Somalie, à Sri Lanka, en Tanzanie, au Viêt Nam, au Yémen et à Taïwan.
 </t>
         </is>
       </c>
@@ -606,10 +624,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles d’Anguilla bicolor peuvent mesurer jusqu'à 123 cm de longueur totale mais leur taille habituelle est d'environ 60 cm[2]. L'âge maximal reporté pour cette espèce est de 20 ans[2].
-Anguilla bicolor est une espèce migratrice qui se reproduit dans l'océan mais vit en eau douce à l'âge adulte[2]. Elle se nourrit de petits poissons, de crustacés et de mollusques[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles d’Anguilla bicolor peuvent mesurer jusqu'à 123 cm de longueur totale mais leur taille habituelle est d'environ 60 cm. L'âge maximal reporté pour cette espèce est de 20 ans.
+Anguilla bicolor est une espèce migratrice qui se reproduit dans l'océan mais vit en eau douce à l'âge adulte. Elle se nourrit de petits poissons, de crustacés et de mollusques.
 </t>
         </is>
       </c>
@@ -638,10 +658,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Anguilla bicolor McClelland, 1844[1],[4].
-Anguilla bicolor a pour synonymes[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Anguilla bicolor McClelland, 1844,.
+Anguilla bicolor a pour synonymes :
 Anguilla amblodon Günther, 1867
 Anguilla bicolor bicolor McClelland, 1844
 Anguilla bicolor pacifica Schmidt, 1928
@@ -689,9 +711,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, du latin bi, « deux », et color, « couleur », fait référence à la teinte vert olive foncé de son dos et blanche sur son ventre[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, du latin bi, « deux », et color, « couleur », fait référence à la teinte vert olive foncé de son dos et blanche sur son ventre.
 </t>
         </is>
       </c>
@@ -720,7 +744,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>(en) J. McClelland, « Apodal fishes of Bengal », Calcutta Journal of Natural History and Miscellany of the Arts and Sciences in India, Calcutta, Inconnu, vol. 5, no 18,‎ juillet 1844, p. 151-226 (OCLC 7423165, lire en ligne)</t>
         </is>
